--- a/downloaded_files/MTHS104_Lecture-35071.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35071.xlsx
@@ -888,7 +888,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1507,7 +1507,7 @@
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45927.4617771644</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -2275,7 +2275,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.0216694792</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Lecture-35071.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35071.xlsx
@@ -186,6 +186,15 @@
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220059</x:t>
   </x:si>
   <x:si>
@@ -229,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Moharam mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240333</x:t>
@@ -1539,7 +1539,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.0257113426</x:v>
+        <x:v>45928.5057316782</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1571,7 +1571,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.0209085648</x:v>
+        <x:v>45915.0257113426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1603,7 +1603,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0225606481</x:v>
+        <x:v>45915.0209085648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1635,7 +1635,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45915.0225606481</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1667,7 +1667,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.020459294</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1699,7 +1699,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0251933218</x:v>
+        <x:v>45915.020459294</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Lecture-35071.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35071.xlsx
@@ -111,6 +111,15 @@
     <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
   </x:si>
   <x:si>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240021</x:t>
   </x:si>
   <x:si>
@@ -163,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Khaled Mohamed Said Khaled Elnazer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان باسم السيد احمد حسين شامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAWAN BASSEM AL SAYED AHMED HUSSEIN SHAMEL</x:t>
   </x:si>
   <x:si>
     <x:t>1240195</x:t>
@@ -1255,7 +1255,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.0247445255</x:v>
+        <x:v>45928.7946234954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.0231387384</x:v>
+        <x:v>45915.0247445255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45915.0231387384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.0238115741</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1383,7 +1383,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45915.0238115741</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1415,7 +1415,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6691932523</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1447,7 +1447,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4349337963</x:v>
+        <x:v>45906.6691932523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Lecture-35071.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35071.xlsx
@@ -255,7 +255,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240100</x:t>
@@ -435,7 +435,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1220318</x:t>

--- a/downloaded_files/MTHS104_Lecture-35071.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35071.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,7 +177,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240196</x:t>
@@ -1475,7 +1478,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1500,10 +1505,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
@@ -1530,13 +1535,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45928.5057316782</x:v>
@@ -1562,13 +1567,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45915.0257113426</x:v>
@@ -1594,13 +1599,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45915.0209085648</x:v>
@@ -1626,13 +1631,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45915.0225606481</x:v>
@@ -1658,13 +1663,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6651743056</x:v>
@@ -1690,13 +1695,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45915.020459294</x:v>
@@ -1722,13 +1727,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45915.0246325231</x:v>
@@ -1754,13 +1759,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45915.0263625</x:v>
@@ -1786,13 +1791,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45915.0219224884</x:v>
@@ -1818,13 +1823,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.4600820255</x:v>
@@ -1850,13 +1855,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6646372685</x:v>
@@ -1882,13 +1887,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6648132755</x:v>
@@ -1914,13 +1919,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45915.0249644329</x:v>
@@ -1946,13 +1951,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45909.4166832176</x:v>
@@ -1978,13 +1983,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6649026968</x:v>
@@ -2010,13 +2015,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.6651312153</x:v>
@@ -2042,13 +2047,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6652359144</x:v>
@@ -2074,13 +2079,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6651607639</x:v>
@@ -2106,13 +2111,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45906.6904955208</x:v>
@@ -2138,13 +2143,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45915.0205482639</x:v>
@@ -2170,13 +2175,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45915.0237138889</x:v>
@@ -2202,13 +2207,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.6651458333</x:v>
@@ -2234,13 +2239,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6652144676</x:v>
@@ -2266,13 +2271,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45927.4523928241</x:v>
@@ -2298,13 +2303,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45915.0212361458</x:v>
@@ -2330,13 +2335,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.6650592245</x:v>
@@ -2362,13 +2367,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45915.0203788194</x:v>
@@ -2394,13 +2399,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.6648476505</x:v>
@@ -2426,13 +2431,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45907.4202043171</x:v>
@@ -2458,13 +2463,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45915.0226895833</x:v>
@@ -2490,13 +2495,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45909.4190063657</x:v>
